--- a/dates.xlsx
+++ b/dates.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Евгений\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\corporate-banking-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="7065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dates" sheetId="1" r:id="rId1"/>
+    <sheet name="literature" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -24,33 +25,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Масштабы банковского кредитования, flow of funds.</t>
   </si>
   <si>
-    <t xml:space="preserve">Банки и другие кредиторы. </t>
-  </si>
-  <si>
-    <t>Финансовый анализ заемщика (DSCR).</t>
-  </si>
-  <si>
     <t>Проблемные кредиты и реструктризация.</t>
   </si>
   <si>
     <t>ИТ-обеспечение и технологические инновации. Оборот данных.</t>
   </si>
   <si>
-    <t>Бизнес-процесс корпоративного кредитования.</t>
-  </si>
-  <si>
-    <t>Кредитные продукты банка.</t>
-  </si>
-  <si>
     <t>Риски корпоративного кредитования. Ценообразование на кредиты.</t>
   </si>
   <si>
     <t>Обобщение - теория банковского посредничества.</t>
+  </si>
+  <si>
+    <t>Бизнес-процесс корпоративного кредитования - введение.</t>
+  </si>
+  <si>
+    <t>How big is bank corporate financing?</t>
+  </si>
+  <si>
+    <t>Финансовый анализ заемщика (DSCR, дефолты, скоринг).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бухгалтерский учет в компаниях и банках - примеры </t>
+  </si>
+  <si>
+    <t>Специальные темы / Invited lecture.</t>
+  </si>
+  <si>
+    <t>Финансовый анализ заемщика (DSCR, дефолты, скоринг) - 1.</t>
+  </si>
+  <si>
+    <t>Credit Risk Rating at Large U.S. Banks</t>
+  </si>
+  <si>
+    <t>Масштабы банковского кредитования, макро/flow of funds.</t>
+  </si>
+  <si>
+    <t>Бухгалтерский учет в компаниях и банках (повтор и примеры).</t>
+  </si>
+  <si>
+    <t>Продукты и бизнес-процесс корпоративного кредитования - введение.</t>
+  </si>
+  <si>
+    <t>Проблемные кредиты и реструктуризация.</t>
+  </si>
+  <si>
+    <t>Обобщение (теория банковского посредничества, примеры).</t>
+  </si>
+  <si>
+    <t>https://www.federalreserve.gov/pubs/bulletin/1998/1198leadw.pdf</t>
+  </si>
+  <si>
+    <t>https://www.bde.es/bde/en/secciones/servicios/Particulares_y_e/Central_de_Infor/Central_de_Info_04db72d6c1fd821.html</t>
+  </si>
+  <si>
+    <t>The Analytical Credit Dataset</t>
+  </si>
+  <si>
+    <t>https://www.ecb.europa.eu/pub/pdf/scpops/ecb.op187.en.pdf?f874f800842e7dbfd364fe4cfb7c60ea</t>
+  </si>
+  <si>
+    <t>http://www.nationalbanken.dk/en/research/data_for_research/Pages/Default.aspx</t>
+  </si>
+  <si>
+    <t>Danmarks Nationalbank - Data for Research</t>
+  </si>
+  <si>
+    <t>Кредитные регистры</t>
+  </si>
+  <si>
+    <t>Does Borrowing from Banks Cost More than Borrowing from the Market?</t>
+  </si>
+  <si>
+    <t>https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3059607</t>
+  </si>
+  <si>
+    <t>Рейтинги</t>
+  </si>
+  <si>
+    <t>https://annualreport.deutsche-bank.com/2017/ar/risk-report/risk-and-capital-management/credit-risk-management/managing-and-mitigation-of-credit-risk.html</t>
+  </si>
+  <si>
+    <t>Кредитный риск</t>
+  </si>
+  <si>
+    <t>Managing and Mitigation of Credit Risk. Годовой отчет Deutsche Bank 2017 или более поздний</t>
+  </si>
+  <si>
+    <t>Задания</t>
+  </si>
+  <si>
+    <t>Корпоративный бизнес как устроен</t>
   </si>
 </sst>
 </file>
@@ -58,9 +128,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +141,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,16 +182,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -394,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -411,7 +490,7 @@
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="4">
         <v>43900</v>
       </c>
@@ -421,11 +500,14 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="4">
         <f>B2+7</f>
         <v>43907</v>
@@ -437,8 +519,11 @@
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <f t="shared" ref="B4:B8" si="0">B3+7</f>
         <v>43914</v>
@@ -448,13 +533,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>43921</v>
@@ -463,11 +548,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>43928</v>
@@ -477,13 +562,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>43935</v>
@@ -493,10 +578,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>43942</v>
@@ -506,20 +594,259 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="2">
+        <f>C15+1</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:C40" si="2">C16+1</f>
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D16" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
